--- a/FishLandings/household groups/statistics/Herbivorous Macroalgal (%)_output.xlsx
+++ b/FishLandings/household groups/statistics/Herbivorous Macroalgal (%)_output.xlsx
@@ -416,16 +416,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>16.025641</v>
+        <v>43.859649</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.101788</v>
+        <v>0.363008</v>
       </c>
       <c r="E2">
-        <v>0.749993</v>
+        <v>0.547252</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>1505.652417</v>
+        <v>1598.171065</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4.781625</v>
+        <v>6.61369</v>
       </c>
       <c r="E3">
-        <v>0.009261</v>
+        <v>0.001526</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>35109.453286</v>
+        <v>40113.22197</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>4.732538</v>
+        <v>3.742149</v>
       </c>
       <c r="H5">
-        <v>-0.747439</v>
+        <v>-0.243131</v>
       </c>
       <c r="I5">
-        <v>10.212514</v>
+        <v>7.727428</v>
       </c>
       <c r="J5">
-        <v>0.105662</v>
+        <v>0.07084500000000001</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>-0.641026</v>
+        <v>-0.877193</v>
       </c>
       <c r="H6">
-        <v>-6.5418</v>
+        <v>-5.063088</v>
       </c>
       <c r="I6">
-        <v>5.259749</v>
+        <v>3.308702</v>
       </c>
       <c r="J6">
-        <v>0.964437</v>
+        <v>0.8745270000000001</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>-5.373563</v>
+        <v>-4.619342</v>
       </c>
       <c r="H7">
-        <v>-9.83461</v>
+        <v>-7.766855</v>
       </c>
       <c r="I7">
-        <v>-0.912516</v>
+        <v>-1.471828</v>
       </c>
       <c r="J7">
-        <v>0.013528</v>
+        <v>0.001794</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Herbivorous Macroalgal (%)_output.xlsx
+++ b/FishLandings/household groups/statistics/Herbivorous Macroalgal (%)_output.xlsx
@@ -416,16 +416,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>43.859649</v>
+        <v>16.025641</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.363008</v>
+        <v>0.101788</v>
       </c>
       <c r="E2">
-        <v>0.547252</v>
+        <v>0.749993</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>1598.171065</v>
+        <v>1505.652417</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6.61369</v>
+        <v>4.781625</v>
       </c>
       <c r="E3">
-        <v>0.001526</v>
+        <v>0.009261</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>40113.22197</v>
+        <v>35109.453286</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>3.742149</v>
+        <v>4.732538</v>
       </c>
       <c r="H5">
-        <v>-0.243131</v>
+        <v>-0.747439</v>
       </c>
       <c r="I5">
-        <v>7.727428</v>
+        <v>10.212514</v>
       </c>
       <c r="J5">
-        <v>0.07084500000000001</v>
+        <v>0.105662</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>-0.877193</v>
+        <v>-0.641026</v>
       </c>
       <c r="H6">
-        <v>-5.063088</v>
+        <v>-6.5418</v>
       </c>
       <c r="I6">
-        <v>3.308702</v>
+        <v>5.259749</v>
       </c>
       <c r="J6">
-        <v>0.8745270000000001</v>
+        <v>0.964437</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>-4.619342</v>
+        <v>-5.373563</v>
       </c>
       <c r="H7">
-        <v>-7.766855</v>
+        <v>-9.83461</v>
       </c>
       <c r="I7">
-        <v>-1.471828</v>
+        <v>-0.912516</v>
       </c>
       <c r="J7">
-        <v>0.001794</v>
+        <v>0.013528</v>
       </c>
     </row>
   </sheetData>
